--- a/My Game.xlsx
+++ b/My Game.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8355" tabRatio="612" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8355" tabRatio="612" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Floor 2" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="402">
   <si>
     <t>Doors</t>
   </si>
@@ -1257,6 +1257,15 @@
   </si>
   <si>
     <t>remove the new clothes from the inventory</t>
+  </si>
+  <si>
+    <t>The patient in this file is called Toby Smith. They're 19 years old and are a 190cm tall male.</t>
+  </si>
+  <si>
+    <t>The patient in this file is called Jess Jones. They're 24 years old and are a 165cm tall female.</t>
+  </si>
+  <si>
+    <t>The patient in this file is called Sam Baker. They're 36 years old and are a 184cm tall male.</t>
   </si>
 </sst>
 </file>
@@ -10709,7 +10718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D150" sqref="D150:J150"/>
     </sheetView>
@@ -14042,9 +14051,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15651,7 +15660,7 @@
         <v>67</v>
       </c>
       <c r="D125" s="203" t="s">
-        <v>68</v>
+        <v>399</v>
       </c>
       <c r="E125" s="201">
         <v>0</v>
@@ -15684,8 +15693,8 @@
       <c r="C127" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="D127" s="201" t="s">
-        <v>68</v>
+      <c r="D127" s="203" t="s">
+        <v>400</v>
       </c>
       <c r="E127" s="201">
         <v>0</v>
@@ -15718,8 +15727,8 @@
       <c r="C129" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="D129" s="201" t="s">
-        <v>68</v>
+      <c r="D129" s="203" t="s">
+        <v>401</v>
       </c>
       <c r="E129" s="201">
         <v>0</v>
